--- a/proj1/src/main/resources/results.xlsx
+++ b/proj1/src/main/resources/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\computer-systems-of-recognition\proj1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972350C6-3DE8-4427-999B-57C6B0A70B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0778AA3C-5C72-4D92-A6F3-B0FCF8926BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="24990" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="5" r:id="rId1"/>
-    <sheet name="wstepna" sheetId="4" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="7" r:id="rId1"/>
+    <sheet name="wyniki eksperymentów" sheetId="5" r:id="rId2"/>
+    <sheet name="wstepna" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="151">
   <si>
     <t>Ekspertment wstępny na ograniczonym zbiorze z metryką euklidesową i k=1</t>
   </si>
@@ -309,18 +310,304 @@
   <si>
     <t>2025-04-26T22:16:07.864343500</t>
   </si>
+  <si>
+    <t>2025-04-27T02:18:30.608293500</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=1</t>
+  </si>
+  <si>
+    <t>{usa=6411, canada=487, japan=280, uk=543, france=151, west-germany=193}</t>
+  </si>
+  <si>
+    <t>{usa=4274, canada=325, japan=186, uk=362, france=100, west-germany=129}</t>
+  </si>
+  <si>
+    <t>2025-04-27T02:29:43.313280700</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=2</t>
+  </si>
+  <si>
+    <t>2025-04-27T02:52:00.905285300</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=3</t>
+  </si>
+  <si>
+    <t>2025-04-27T03:14:13.014697500</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=5</t>
+  </si>
+  <si>
+    <t>2025-04-27T03:52:51.280221500</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=9</t>
+  </si>
+  <si>
+    <t>2025-04-27T04:37:45.608740300</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=12</t>
+  </si>
+  <si>
+    <t>2025-04-27T05:33:08.026333100</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=15</t>
+  </si>
+  <si>
+    <t>2025-04-27T06:33:46.293845700</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=20</t>
+  </si>
+  <si>
+    <t>2025-04-27T07:33:58.393270</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=30</t>
+  </si>
+  <si>
+    <t>2025-04-27T08:49:51.951575100</t>
+  </si>
+  <si>
+    <t>Ekspertment 1 z metryką euklidesową i k=50</t>
+  </si>
+  <si>
+    <t>2025-04-27T09:06:15.541901800</t>
+  </si>
+  <si>
+    <t>Ekspertment 2 z metryką euklidesową i k=10</t>
+  </si>
+  <si>
+    <t>{usa=1068, canada=81, japan=47, uk=90, france=25, west-germany=32}</t>
+  </si>
+  <si>
+    <t>{usa=9617, canada=731, japan=419, uk=815, france=226, west-germany=290}</t>
+  </si>
+  <si>
+    <t>2025-04-27T10:31:12.441529600</t>
+  </si>
+  <si>
+    <t>{usa=5342, canada=406, japan=233, uk=452, france=125, west-germany=161}</t>
+  </si>
+  <si>
+    <t>{usa=5343, canada=406, japan=233, uk=453, france=126, west-germany=161}</t>
+  </si>
+  <si>
+    <t>2025-04-27T11:10:08.366142400</t>
+  </si>
+  <si>
+    <t>{usa=7479, canada=568, japan=326, uk=633, france=176, west-germany=225}</t>
+  </si>
+  <si>
+    <t>{usa=3206, canada=244, japan=140, uk=272, france=75, west-germany=97}</t>
+  </si>
+  <si>
+    <t>2025-04-27T11:26:44.898013900</t>
+  </si>
+  <si>
+    <t>{usa=9616, canada=731, japan=419, uk=814, france=226, west-germany=290}</t>
+  </si>
+  <si>
+    <t>{usa=1069, canada=81, japan=47, uk=91, france=25, west-germany=32}</t>
+  </si>
+  <si>
+    <t>2025-04-27T12:11:11.652239400</t>
+  </si>
+  <si>
+    <t>Ekspertment 3 z metryką euklidesową i k=10</t>
+  </si>
+  <si>
+    <t>2025-04-27T12:55:34.657820600</t>
+  </si>
+  <si>
+    <t>Ekspertment 3 z metryką uliczną i k=10</t>
+  </si>
+  <si>
+    <t>2025-04-27T13:24:14.752899</t>
+  </si>
+  <si>
+    <t>Ekspertment 3 z metryką chebysheva i k=10</t>
+  </si>
+  <si>
+    <t>2025-04-27T14:08:35.420813800</t>
+  </si>
+  <si>
+    <t>Ekspertment 4 z metryką euklidesową i k=10</t>
+  </si>
+  <si>
+    <t>2025-04-27T14:36:10.320858700</t>
+  </si>
+  <si>
+    <t>[c1, c2, c3, c4, c5, c6]</t>
+  </si>
+  <si>
+    <t>2025-04-27T15:00:20.217682200</t>
+  </si>
+  <si>
+    <t>[c7, c8, c9, c10, c11, c12]</t>
+  </si>
+  <si>
+    <t>2025-04-27T15:48:20.668352900</t>
+  </si>
+  <si>
+    <t>Ekspertment 4 cechy tekstowe z metryką euklidesową i k=10</t>
+  </si>
+  <si>
+    <t>[c3, c4, c5, c7, c8]</t>
+  </si>
+  <si>
+    <t>2025-04-27T15:48:45.327381</t>
+  </si>
+  <si>
+    <t>Ekspertment 4 cechy numeryczne z metryką euklidesową i k=10</t>
+  </si>
+  <si>
+    <t>[c1, c2, c6, c9, c10, c11, c12]</t>
+  </si>
+  <si>
+    <t>2025-04-27T17:30:02.506443400</t>
+  </si>
+  <si>
+    <t>Eksperyment2</t>
+  </si>
+  <si>
+    <t>{usa=3206, canada=244, japan=140, uk=271, france=75, west-germany=97}</t>
+  </si>
+  <si>
+    <t>{usa=7479, canada=568, japan=326, uk=634, france=176, west-germany=225}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -493,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,6 +812,29 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -804,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0471C8-679C-451A-9171-10D4E800C10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1E4295-446A-4FB9-A5D6-65AB92D1A0D0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -816,11 +1126,9065 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0471C8-679C-451A-9171-10D4E800C10C}">
+  <dimension ref="A2:J760"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>329.44000244140625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0.80970984697341919</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>3793</v>
+      </c>
+      <c r="E20">
+        <v>219</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>115</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>177</v>
+      </c>
+      <c r="E21">
+        <v>122</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>111</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>111</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>215</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.375</v>
+      </c>
+      <c r="F30">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F32">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.49</v>
+      </c>
+      <c r="F33">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E34">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>671.6259765625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>0.80970984697341919</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>3793</v>
+      </c>
+      <c r="E53">
+        <v>219</v>
+      </c>
+      <c r="F53">
+        <v>77</v>
+      </c>
+      <c r="G53">
+        <v>115</v>
+      </c>
+      <c r="H53">
+        <v>35</v>
+      </c>
+      <c r="I53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>177</v>
+      </c>
+      <c r="E54">
+        <v>122</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>111</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>215</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>49</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E62">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.375</v>
+      </c>
+      <c r="F63">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E64">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F64">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E65">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F65">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E66">
+        <v>0.49</v>
+      </c>
+      <c r="F66">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E67">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F67">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1337.5059814453125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>0.84635418653488159</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>4015</v>
+      </c>
+      <c r="E86">
+        <v>94</v>
+      </c>
+      <c r="F86">
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>80</v>
+      </c>
+      <c r="H86">
+        <v>19</v>
+      </c>
+      <c r="I86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>207</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>52</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>112</v>
+      </c>
+      <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>105</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>225</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>45</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>53</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E95">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F95">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>0.45</v>
+      </c>
+      <c r="E96">
+        <v>0.308</v>
+      </c>
+      <c r="F96">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E97">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F97">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E98">
+        <v>0.622</v>
+      </c>
+      <c r="F98">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="E99">
+        <v>0.45</v>
+      </c>
+      <c r="F99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E100">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F100">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1332.041015625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>0.86365330219268799</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119">
+        <v>4104</v>
+      </c>
+      <c r="E119">
+        <v>62</v>
+      </c>
+      <c r="F119">
+        <v>37</v>
+      </c>
+      <c r="G119">
+        <v>50</v>
+      </c>
+      <c r="H119">
+        <v>12</v>
+      </c>
+      <c r="I119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>225</v>
+      </c>
+      <c r="E120">
+        <v>88</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>57</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>116</v>
+      </c>
+      <c r="G121">
+        <v>8</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122">
+        <v>115</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>229</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <v>36</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>7</v>
+      </c>
+      <c r="H123">
+        <v>46</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124">
+        <v>58</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E128">
+        <v>0.96</v>
+      </c>
+      <c r="F128">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E129">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F129">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E130">
+        <v>0.624</v>
+      </c>
+      <c r="F130">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>0.751</v>
+      </c>
+      <c r="E131">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F131">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E132">
+        <v>0.46</v>
+      </c>
+      <c r="F132">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E133">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F133">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>2318.20703125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>0.87127977609634399</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" t="s">
+        <v>26</v>
+      </c>
+      <c r="J151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152">
+        <v>4170</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152">
+        <v>29</v>
+      </c>
+      <c r="H152">
+        <v>11</v>
+      </c>
+      <c r="I152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153">
+        <v>221</v>
+      </c>
+      <c r="E153">
+        <v>96</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <v>68</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>110</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="F155">
+        <v>6</v>
+      </c>
+      <c r="G155">
+        <v>213</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156">
+        <v>42</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+      <c r="H156">
+        <v>41</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E161">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F161">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>0.623</v>
+      </c>
+      <c r="E162">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F162">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E163">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F163">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E164">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F164">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E165">
+        <v>0.41</v>
+      </c>
+      <c r="F165">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>0.871</v>
+      </c>
+      <c r="E166">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F166">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>2694.2509765625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>0.8720238208770752</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" t="s">
+        <v>25</v>
+      </c>
+      <c r="I184" t="s">
+        <v>26</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185">
+        <v>4185</v>
+      </c>
+      <c r="E185">
+        <v>32</v>
+      </c>
+      <c r="F185">
+        <v>17</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>12</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186">
+        <v>230</v>
+      </c>
+      <c r="E186">
+        <v>90</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187">
+        <v>68</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>111</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>136</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188">
+        <v>211</v>
+      </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189">
+        <v>51</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>8</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>35</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190">
+        <v>65</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E194">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F194">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E195">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F195">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196">
+        <v>0.755</v>
+      </c>
+      <c r="E196">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F196">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E197">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F197">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198">
+        <v>0.7</v>
+      </c>
+      <c r="E198">
+        <v>0.35</v>
+      </c>
+      <c r="F198">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E199">
+        <v>0.434</v>
+      </c>
+      <c r="F199">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>3322.3310546875</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215">
+        <v>0.86997765302658081</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" t="s">
+        <v>23</v>
+      </c>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="H217" t="s">
+        <v>25</v>
+      </c>
+      <c r="I217" t="s">
+        <v>26</v>
+      </c>
+      <c r="J217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218">
+        <v>4197</v>
+      </c>
+      <c r="E218">
+        <v>32</v>
+      </c>
+      <c r="F218">
+        <v>14</v>
+      </c>
+      <c r="G218">
+        <v>19</v>
+      </c>
+      <c r="H218">
+        <v>8</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219">
+        <v>235</v>
+      </c>
+      <c r="E219">
+        <v>85</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220">
+        <v>75</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>106</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221">
+        <v>143</v>
+      </c>
+      <c r="E221">
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+      <c r="G221">
+        <v>204</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222">
+        <v>48</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222">
+        <v>9</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222">
+        <v>34</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223">
+        <v>68</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>6</v>
+      </c>
+      <c r="G223">
+        <v>4</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>30</v>
+      </c>
+      <c r="E226" t="s">
+        <v>31</v>
+      </c>
+      <c r="F226" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E227">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F227">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E228">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F228">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229">
+        <v>0.746</v>
+      </c>
+      <c r="E229">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F229">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>24</v>
+      </c>
+      <c r="D230">
+        <v>0.872</v>
+      </c>
+      <c r="E230">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F230">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E231">
+        <v>0.34</v>
+      </c>
+      <c r="F231">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E232">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F232">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>3638.220947265625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248">
+        <v>0.86774551868438721</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>21</v>
+      </c>
+      <c r="E250" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" t="s">
+        <v>24</v>
+      </c>
+      <c r="H250" t="s">
+        <v>25</v>
+      </c>
+      <c r="I250" t="s">
+        <v>26</v>
+      </c>
+      <c r="J250" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251">
+        <v>4205</v>
+      </c>
+      <c r="E251">
+        <v>26</v>
+      </c>
+      <c r="F251">
+        <v>16</v>
+      </c>
+      <c r="G251">
+        <v>16</v>
+      </c>
+      <c r="H251">
+        <v>8</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252">
+        <v>243</v>
+      </c>
+      <c r="E252">
+        <v>77</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253">
+        <v>76</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+      <c r="F253">
+        <v>105</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254">
+        <v>151</v>
+      </c>
+      <c r="E254">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>198</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255">
+        <v>52</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+      <c r="F255">
+        <v>7</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <v>34</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256">
+        <v>73</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>6</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" t="s">
+        <v>31</v>
+      </c>
+      <c r="F259" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260">
+        <v>0.876</v>
+      </c>
+      <c r="E260">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F260">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E261">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F261">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>23</v>
+      </c>
+      <c r="D262">
+        <v>0.75</v>
+      </c>
+      <c r="E262">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F262">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="D263">
+        <v>0.88</v>
+      </c>
+      <c r="E263">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F263">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="E264">
+        <v>0.34</v>
+      </c>
+      <c r="F264">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265">
+        <v>0.92</v>
+      </c>
+      <c r="E265">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F265">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>3612.04296875</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281">
+        <v>0.86607140302658081</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>21</v>
+      </c>
+      <c r="E283" t="s">
+        <v>22</v>
+      </c>
+      <c r="F283" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" t="s">
+        <v>24</v>
+      </c>
+      <c r="H283" t="s">
+        <v>25</v>
+      </c>
+      <c r="I283" t="s">
+        <v>26</v>
+      </c>
+      <c r="J283" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284">
+        <v>4214</v>
+      </c>
+      <c r="E284">
+        <v>22</v>
+      </c>
+      <c r="F284">
+        <v>21</v>
+      </c>
+      <c r="G284">
+        <v>15</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>22</v>
+      </c>
+      <c r="D285">
+        <v>244</v>
+      </c>
+      <c r="E285">
+        <v>76</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+      <c r="G285">
+        <v>3</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>23</v>
+      </c>
+      <c r="D286">
+        <v>77</v>
+      </c>
+      <c r="E286">
+        <v>4</v>
+      </c>
+      <c r="F286">
+        <v>104</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>24</v>
+      </c>
+      <c r="D287">
+        <v>156</v>
+      </c>
+      <c r="E287">
+        <v>7</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>195</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288">
+        <v>57</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288">
+        <v>31</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>26</v>
+      </c>
+      <c r="D289">
+        <v>82</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>30</v>
+      </c>
+      <c r="E292" t="s">
+        <v>31</v>
+      </c>
+      <c r="F292" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293">
+        <v>0.872</v>
+      </c>
+      <c r="E293">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F293">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E294">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F294">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>23</v>
+      </c>
+      <c r="D295">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E295">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F295">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>24</v>
+      </c>
+      <c r="D296">
+        <v>0.878</v>
+      </c>
+      <c r="E296">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F296">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>25</v>
+      </c>
+      <c r="D297">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E297">
+        <v>0.31</v>
+      </c>
+      <c r="F297">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>26</v>
+      </c>
+      <c r="D298">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E298">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F298">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>4553.51318359375</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314">
+        <v>0.8603050708770752</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>21</v>
+      </c>
+      <c r="E316" t="s">
+        <v>22</v>
+      </c>
+      <c r="F316" t="s">
+        <v>23</v>
+      </c>
+      <c r="G316" t="s">
+        <v>24</v>
+      </c>
+      <c r="H316" t="s">
+        <v>25</v>
+      </c>
+      <c r="I316" t="s">
+        <v>26</v>
+      </c>
+      <c r="J316" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317">
+        <v>4216</v>
+      </c>
+      <c r="E317">
+        <v>21</v>
+      </c>
+      <c r="F317">
+        <v>22</v>
+      </c>
+      <c r="G317">
+        <v>13</v>
+      </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318">
+        <v>247</v>
+      </c>
+      <c r="E318">
+        <v>74</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>3</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>23</v>
+      </c>
+      <c r="D319">
+        <v>79</v>
+      </c>
+      <c r="E319">
+        <v>7</v>
+      </c>
+      <c r="F319">
+        <v>99</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>24</v>
+      </c>
+      <c r="D320">
+        <v>170</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+      <c r="G320">
+        <v>182</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321">
+        <v>67</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+      <c r="G321">
+        <v>3</v>
+      </c>
+      <c r="H321">
+        <v>22</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322">
+        <v>88</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>6</v>
+      </c>
+      <c r="G322">
+        <v>2</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>30</v>
+      </c>
+      <c r="E325" t="s">
+        <v>31</v>
+      </c>
+      <c r="F325" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E326">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F326">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E327">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F327">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E328">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F328">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E329">
+        <v>0.503</v>
+      </c>
+      <c r="F329">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>25</v>
+      </c>
+      <c r="D330">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E330">
+        <v>0.22</v>
+      </c>
+      <c r="F330">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331">
+        <v>0.97</v>
+      </c>
+      <c r="E331">
+        <v>0.248</v>
+      </c>
+      <c r="F331">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>977.2490234375</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347">
+        <v>0.84063482284545898</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>21</v>
+      </c>
+      <c r="E349" t="s">
+        <v>22</v>
+      </c>
+      <c r="F349" t="s">
+        <v>23</v>
+      </c>
+      <c r="G349" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349" t="s">
+        <v>25</v>
+      </c>
+      <c r="I349" t="s">
+        <v>26</v>
+      </c>
+      <c r="J349" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350">
+        <v>9320</v>
+      </c>
+      <c r="E350">
+        <v>101</v>
+      </c>
+      <c r="F350">
+        <v>106</v>
+      </c>
+      <c r="G350">
+        <v>73</v>
+      </c>
+      <c r="H350">
+        <v>4</v>
+      </c>
+      <c r="I350">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>22</v>
+      </c>
+      <c r="D351">
+        <v>518</v>
+      </c>
+      <c r="E351">
+        <v>195</v>
+      </c>
+      <c r="F351">
+        <v>5</v>
+      </c>
+      <c r="G351">
+        <v>13</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>23</v>
+      </c>
+      <c r="D352">
+        <v>170</v>
+      </c>
+      <c r="E352">
+        <v>11</v>
+      </c>
+      <c r="F352">
+        <v>233</v>
+      </c>
+      <c r="G352">
+        <v>4</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>24</v>
+      </c>
+      <c r="D353">
+        <v>374</v>
+      </c>
+      <c r="E353">
+        <v>16</v>
+      </c>
+      <c r="F353">
+        <v>90</v>
+      </c>
+      <c r="G353">
+        <v>330</v>
+      </c>
+      <c r="H353">
+        <v>4</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>25</v>
+      </c>
+      <c r="D354">
+        <v>131</v>
+      </c>
+      <c r="E354">
+        <v>23</v>
+      </c>
+      <c r="F354">
+        <v>33</v>
+      </c>
+      <c r="G354">
+        <v>11</v>
+      </c>
+      <c r="H354">
+        <v>26</v>
+      </c>
+      <c r="I354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355">
+        <v>189</v>
+      </c>
+      <c r="E355">
+        <v>4</v>
+      </c>
+      <c r="F355">
+        <v>20</v>
+      </c>
+      <c r="G355">
+        <v>10</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358" t="s">
+        <v>31</v>
+      </c>
+      <c r="F358" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359">
+        <v>0.871</v>
+      </c>
+      <c r="E359">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F359">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>22</v>
+      </c>
+      <c r="D360">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E360">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F360">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E361">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F361">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362">
+        <v>0.748</v>
+      </c>
+      <c r="E362">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F362">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>25</v>
+      </c>
+      <c r="D363">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E363">
+        <v>0.115</v>
+      </c>
+      <c r="F363">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>26</v>
+      </c>
+      <c r="D364">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E364">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F364">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>2624.010009765625</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C376" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>17</v>
+      </c>
+      <c r="C378">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380">
+        <v>0.86043792963027954</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>21</v>
+      </c>
+      <c r="E382" t="s">
+        <v>22</v>
+      </c>
+      <c r="F382" t="s">
+        <v>23</v>
+      </c>
+      <c r="G382" t="s">
+        <v>24</v>
+      </c>
+      <c r="H382" t="s">
+        <v>25</v>
+      </c>
+      <c r="I382" t="s">
+        <v>26</v>
+      </c>
+      <c r="J382" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383">
+        <v>7300</v>
+      </c>
+      <c r="E383">
+        <v>84</v>
+      </c>
+      <c r="F383">
+        <v>31</v>
+      </c>
+      <c r="G383">
+        <v>46</v>
+      </c>
+      <c r="H383">
+        <v>7</v>
+      </c>
+      <c r="I383">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>22</v>
+      </c>
+      <c r="D384">
+        <v>402</v>
+      </c>
+      <c r="E384">
+        <v>156</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>8</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>23</v>
+      </c>
+      <c r="D385">
+        <v>143</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385">
+        <v>176</v>
+      </c>
+      <c r="G385">
+        <v>2</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>24</v>
+      </c>
+      <c r="D386">
+        <v>259</v>
+      </c>
+      <c r="E386">
+        <v>14</v>
+      </c>
+      <c r="F386">
+        <v>15</v>
+      </c>
+      <c r="G386">
+        <v>341</v>
+      </c>
+      <c r="H386">
+        <v>3</v>
+      </c>
+      <c r="I386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387">
+        <v>89</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+      <c r="F387">
+        <v>18</v>
+      </c>
+      <c r="G387">
+        <v>9</v>
+      </c>
+      <c r="H387">
+        <v>53</v>
+      </c>
+      <c r="I387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>26</v>
+      </c>
+      <c r="D388">
+        <v>136</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>11</v>
+      </c>
+      <c r="G388">
+        <v>7</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+      <c r="I388">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E391" t="s">
+        <v>31</v>
+      </c>
+      <c r="F391" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>21</v>
+      </c>
+      <c r="D392">
+        <v>0.876</v>
+      </c>
+      <c r="E392">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F392">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>22</v>
+      </c>
+      <c r="D393">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E393">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F393">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E394">
+        <v>0.54</v>
+      </c>
+      <c r="F394">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>24</v>
+      </c>
+      <c r="D395">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E395">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F395">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E396">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F396">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>26</v>
+      </c>
+      <c r="D397">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E397">
+        <v>0.307</v>
+      </c>
+      <c r="F397">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+      <c r="C402">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="404" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="405" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="407" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>13</v>
+      </c>
+      <c r="C409" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>17</v>
+      </c>
+      <c r="C411">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="412" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>18</v>
+      </c>
+      <c r="C412">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="413" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>19</v>
+      </c>
+      <c r="C413">
+        <v>0.86700385808944702</v>
+      </c>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>21</v>
+      </c>
+      <c r="E415" t="s">
+        <v>22</v>
+      </c>
+      <c r="F415" t="s">
+        <v>23</v>
+      </c>
+      <c r="G415" t="s">
+        <v>24</v>
+      </c>
+      <c r="H415" t="s">
+        <v>25</v>
+      </c>
+      <c r="I415" t="s">
+        <v>26</v>
+      </c>
+      <c r="J415" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416">
+        <v>5216</v>
+      </c>
+      <c r="E416">
+        <v>61</v>
+      </c>
+      <c r="F416">
+        <v>17</v>
+      </c>
+      <c r="G416">
+        <v>34</v>
+      </c>
+      <c r="H416">
+        <v>12</v>
+      </c>
+      <c r="I416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>22</v>
+      </c>
+      <c r="D417">
+        <v>286</v>
+      </c>
+      <c r="E417">
+        <v>113</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+      <c r="G417">
+        <v>4</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>23</v>
+      </c>
+      <c r="D418">
+        <v>98</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+      <c r="F418">
+        <v>129</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>24</v>
+      </c>
+      <c r="D419">
+        <v>176</v>
+      </c>
+      <c r="E419">
+        <v>8</v>
+      </c>
+      <c r="F419">
+        <v>8</v>
+      </c>
+      <c r="G419">
+        <v>257</v>
+      </c>
+      <c r="H419">
+        <v>3</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>25</v>
+      </c>
+      <c r="D420">
+        <v>61</v>
+      </c>
+      <c r="E420">
+        <v>2</v>
+      </c>
+      <c r="F420">
+        <v>8</v>
+      </c>
+      <c r="G420">
+        <v>8</v>
+      </c>
+      <c r="H420">
+        <v>46</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>26</v>
+      </c>
+      <c r="D421">
+        <v>82</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>7</v>
+      </c>
+      <c r="G421">
+        <v>3</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>30</v>
+      </c>
+      <c r="E424" t="s">
+        <v>31</v>
+      </c>
+      <c r="F424" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>21</v>
+      </c>
+      <c r="D425">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E425">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F425">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C426" t="s">
+        <v>22</v>
+      </c>
+      <c r="D426">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E426">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F426">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C427" t="s">
+        <v>23</v>
+      </c>
+      <c r="D427">
+        <v>0.754</v>
+      </c>
+      <c r="E427">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F427">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>24</v>
+      </c>
+      <c r="D428">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E428">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F428">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
+        <v>25</v>
+      </c>
+      <c r="D429">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E429">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F429">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C430" t="s">
+        <v>26</v>
+      </c>
+      <c r="D430">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E430">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F430">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>2335.881103515625</v>
+      </c>
+    </row>
+    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="435" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>3</v>
+      </c>
+      <c r="C435">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="437" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="438" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="440" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>13</v>
+      </c>
+      <c r="C442" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="443" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>15</v>
+      </c>
+      <c r="C443" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>17</v>
+      </c>
+      <c r="C444">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="445" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>18</v>
+      </c>
+      <c r="C445">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>19</v>
+      </c>
+      <c r="C446">
+        <v>0.87332671880722046</v>
+      </c>
+    </row>
+    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D448" t="s">
+        <v>21</v>
+      </c>
+      <c r="E448" t="s">
+        <v>22</v>
+      </c>
+      <c r="F448" t="s">
+        <v>23</v>
+      </c>
+      <c r="G448" t="s">
+        <v>24</v>
+      </c>
+      <c r="H448" t="s">
+        <v>25</v>
+      </c>
+      <c r="I448" t="s">
+        <v>26</v>
+      </c>
+      <c r="J448" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C449" t="s">
+        <v>21</v>
+      </c>
+      <c r="D449">
+        <v>3139</v>
+      </c>
+      <c r="E449">
+        <v>28</v>
+      </c>
+      <c r="F449">
+        <v>13</v>
+      </c>
+      <c r="G449">
+        <v>14</v>
+      </c>
+      <c r="H449">
+        <v>9</v>
+      </c>
+      <c r="I449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C450" t="s">
+        <v>22</v>
+      </c>
+      <c r="D450">
+        <v>168</v>
+      </c>
+      <c r="E450">
+        <v>69</v>
+      </c>
+      <c r="F450">
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>2</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C451" t="s">
+        <v>23</v>
+      </c>
+      <c r="D451">
+        <v>45</v>
+      </c>
+      <c r="E451">
+        <v>5</v>
+      </c>
+      <c r="F451">
+        <v>86</v>
+      </c>
+      <c r="G451">
+        <v>4</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C452" t="s">
+        <v>24</v>
+      </c>
+      <c r="D452">
+        <v>105</v>
+      </c>
+      <c r="E452">
+        <v>10</v>
+      </c>
+      <c r="F452">
+        <v>5</v>
+      </c>
+      <c r="G452">
+        <v>151</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C453" t="s">
+        <v>25</v>
+      </c>
+      <c r="D453">
+        <v>26</v>
+      </c>
+      <c r="E453">
+        <v>3</v>
+      </c>
+      <c r="F453">
+        <v>6</v>
+      </c>
+      <c r="G453">
+        <v>7</v>
+      </c>
+      <c r="H453">
+        <v>32</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C454" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454">
+        <v>44</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>4</v>
+      </c>
+      <c r="G454">
+        <v>3</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C455" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>30</v>
+      </c>
+      <c r="E457" t="s">
+        <v>31</v>
+      </c>
+      <c r="F457" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458">
+        <v>0.89</v>
+      </c>
+      <c r="E458">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F458">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C459" t="s">
+        <v>22</v>
+      </c>
+      <c r="D459">
+        <v>0.6</v>
+      </c>
+      <c r="E459">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F459">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C460" t="s">
+        <v>23</v>
+      </c>
+      <c r="D460">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E460">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F460">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C461" t="s">
+        <v>24</v>
+      </c>
+      <c r="D461">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E461">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F461">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>25</v>
+      </c>
+      <c r="D462">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E462">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F462">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+      <c r="D463">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E463">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F463">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A464" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>996.49200439453125</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>3</v>
+      </c>
+      <c r="C468">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>4</v>
+      </c>
+      <c r="C469">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>7</v>
+      </c>
+      <c r="C471">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>10</v>
+      </c>
+      <c r="C473">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>13</v>
+      </c>
+      <c r="C475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>15</v>
+      </c>
+      <c r="C476" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>17</v>
+      </c>
+      <c r="C477">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>18</v>
+      </c>
+      <c r="C478">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>19</v>
+      </c>
+      <c r="C479">
+        <v>0.87583643198013306</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>21</v>
+      </c>
+      <c r="E481" t="s">
+        <v>22</v>
+      </c>
+      <c r="F481" t="s">
+        <v>23</v>
+      </c>
+      <c r="G481" t="s">
+        <v>24</v>
+      </c>
+      <c r="H481" t="s">
+        <v>25</v>
+      </c>
+      <c r="I481" t="s">
+        <v>26</v>
+      </c>
+      <c r="J481" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <v>1044</v>
+      </c>
+      <c r="E482">
+        <v>10</v>
+      </c>
+      <c r="F482">
+        <v>6</v>
+      </c>
+      <c r="G482">
+        <v>5</v>
+      </c>
+      <c r="H482">
+        <v>2</v>
+      </c>
+      <c r="I482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>22</v>
+      </c>
+      <c r="D483">
+        <v>56</v>
+      </c>
+      <c r="E483">
+        <v>22</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>23</v>
+      </c>
+      <c r="D484">
+        <v>18</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>25</v>
+      </c>
+      <c r="G484">
+        <v>3</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>24</v>
+      </c>
+      <c r="D485">
+        <v>28</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>4</v>
+      </c>
+      <c r="G485">
+        <v>59</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>25</v>
+      </c>
+      <c r="D486">
+        <v>7</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+      <c r="G486">
+        <v>4</v>
+      </c>
+      <c r="H486">
+        <v>12</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>26</v>
+      </c>
+      <c r="D487">
+        <v>11</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>2</v>
+      </c>
+      <c r="G487">
+        <v>3</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="489" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D490" t="s">
+        <v>30</v>
+      </c>
+      <c r="E490" t="s">
+        <v>31</v>
+      </c>
+      <c r="F490" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>21</v>
+      </c>
+      <c r="D491">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E491">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F491">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="492" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>22</v>
+      </c>
+      <c r="D492">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E492">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F492">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>23</v>
+      </c>
+      <c r="D493">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E493">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F493">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="494" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>24</v>
+      </c>
+      <c r="D494">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="E494">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F494">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="495" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>25</v>
+      </c>
+      <c r="D495">
+        <v>0.75</v>
+      </c>
+      <c r="E495">
+        <v>0.48</v>
+      </c>
+      <c r="F495">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="496" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>26</v>
+      </c>
+      <c r="D496">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E496">
+        <v>0.5</v>
+      </c>
+      <c r="F496">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>2661.283935546875</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+      <c r="C503" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+      <c r="C504">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>10</v>
+      </c>
+      <c r="C506">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>11</v>
+      </c>
+      <c r="C507" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>15</v>
+      </c>
+      <c r="C509" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>17</v>
+      </c>
+      <c r="C510">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>18</v>
+      </c>
+      <c r="C511">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>19</v>
+      </c>
+      <c r="C512">
+        <v>0.87369793653488159</v>
+      </c>
+    </row>
+    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D514" t="s">
+        <v>21</v>
+      </c>
+      <c r="E514" t="s">
+        <v>22</v>
+      </c>
+      <c r="F514" t="s">
+        <v>23</v>
+      </c>
+      <c r="G514" t="s">
+        <v>24</v>
+      </c>
+      <c r="H514" t="s">
+        <v>25</v>
+      </c>
+      <c r="I514" t="s">
+        <v>26</v>
+      </c>
+      <c r="J514" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>21</v>
+      </c>
+      <c r="D515">
+        <v>4178</v>
+      </c>
+      <c r="E515">
+        <v>36</v>
+      </c>
+      <c r="F515">
+        <v>19</v>
+      </c>
+      <c r="G515">
+        <v>24</v>
+      </c>
+      <c r="H515">
+        <v>12</v>
+      </c>
+      <c r="I515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>22</v>
+      </c>
+      <c r="D516">
+        <v>222</v>
+      </c>
+      <c r="E516">
+        <v>95</v>
+      </c>
+      <c r="F516">
+        <v>2</v>
+      </c>
+      <c r="G516">
+        <v>3</v>
+      </c>
+      <c r="H516">
+        <v>2</v>
+      </c>
+      <c r="I516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>23</v>
+      </c>
+      <c r="D517">
+        <v>66</v>
+      </c>
+      <c r="E517">
+        <v>6</v>
+      </c>
+      <c r="F517">
+        <v>113</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>24</v>
+      </c>
+      <c r="D518">
+        <v>134</v>
+      </c>
+      <c r="E518">
+        <v>7</v>
+      </c>
+      <c r="F518">
+        <v>7</v>
+      </c>
+      <c r="G518">
+        <v>211</v>
+      </c>
+      <c r="H518">
+        <v>3</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>25</v>
+      </c>
+      <c r="D519">
+        <v>46</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>7</v>
+      </c>
+      <c r="G519">
+        <v>4</v>
+      </c>
+      <c r="H519">
+        <v>40</v>
+      </c>
+      <c r="I519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>26</v>
+      </c>
+      <c r="D520">
+        <v>60</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>5</v>
+      </c>
+      <c r="G520">
+        <v>4</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D523" t="s">
+        <v>30</v>
+      </c>
+      <c r="E523" t="s">
+        <v>31</v>
+      </c>
+      <c r="F523" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>21</v>
+      </c>
+      <c r="D524">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E524">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F524">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E525">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F525">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>23</v>
+      </c>
+      <c r="D526">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E526">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F526">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>24</v>
+      </c>
+      <c r="D527">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E527">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F527">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C528" t="s">
+        <v>25</v>
+      </c>
+      <c r="D528">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E528">
+        <v>0.4</v>
+      </c>
+      <c r="F528">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>26</v>
+      </c>
+      <c r="D529">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E529">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F529">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>2662.9560546875</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>2</v>
+      </c>
+      <c r="C533">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>3</v>
+      </c>
+      <c r="C534">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>4</v>
+      </c>
+      <c r="C535">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C536" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>10</v>
+      </c>
+      <c r="C539">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>11</v>
+      </c>
+      <c r="C540" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>13</v>
+      </c>
+      <c r="C541" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>15</v>
+      </c>
+      <c r="C542" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>17</v>
+      </c>
+      <c r="C543">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>18</v>
+      </c>
+      <c r="C544">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="545" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>19</v>
+      </c>
+      <c r="C545">
+        <v>0.87537205219268799</v>
+      </c>
+    </row>
+    <row r="546" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D547" t="s">
+        <v>21</v>
+      </c>
+      <c r="E547" t="s">
+        <v>22</v>
+      </c>
+      <c r="F547" t="s">
+        <v>23</v>
+      </c>
+      <c r="G547" t="s">
+        <v>24</v>
+      </c>
+      <c r="H547" t="s">
+        <v>25</v>
+      </c>
+      <c r="I547" t="s">
+        <v>26</v>
+      </c>
+      <c r="J547" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="548" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C548" t="s">
+        <v>21</v>
+      </c>
+      <c r="D548">
+        <v>4178</v>
+      </c>
+      <c r="E548">
+        <v>34</v>
+      </c>
+      <c r="F548">
+        <v>15</v>
+      </c>
+      <c r="G548">
+        <v>32</v>
+      </c>
+      <c r="H548">
+        <v>8</v>
+      </c>
+      <c r="I548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C549" t="s">
+        <v>22</v>
+      </c>
+      <c r="D549">
+        <v>234</v>
+      </c>
+      <c r="E549">
+        <v>85</v>
+      </c>
+      <c r="F549">
+        <v>2</v>
+      </c>
+      <c r="G549">
+        <v>4</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C550" t="s">
+        <v>23</v>
+      </c>
+      <c r="D550">
+        <v>62</v>
+      </c>
+      <c r="E550">
+        <v>4</v>
+      </c>
+      <c r="F550">
+        <v>116</v>
+      </c>
+      <c r="G550">
+        <v>2</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+      <c r="I550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C551" t="s">
+        <v>24</v>
+      </c>
+      <c r="D551">
+        <v>128</v>
+      </c>
+      <c r="E551">
+        <v>7</v>
+      </c>
+      <c r="F551">
+        <v>3</v>
+      </c>
+      <c r="G551">
+        <v>220</v>
+      </c>
+      <c r="H551">
+        <v>4</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C552" t="s">
+        <v>25</v>
+      </c>
+      <c r="D552">
+        <v>45</v>
+      </c>
+      <c r="E552">
+        <v>2</v>
+      </c>
+      <c r="F552">
+        <v>7</v>
+      </c>
+      <c r="G552">
+        <v>4</v>
+      </c>
+      <c r="H552">
+        <v>41</v>
+      </c>
+      <c r="I552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C553" t="s">
+        <v>26</v>
+      </c>
+      <c r="D553">
+        <v>53</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>6</v>
+      </c>
+      <c r="G553">
+        <v>3</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+      <c r="I553">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="554" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C554" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="555" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="556" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D556" t="s">
+        <v>30</v>
+      </c>
+      <c r="E556" t="s">
+        <v>31</v>
+      </c>
+      <c r="F556" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="557" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C557" t="s">
+        <v>21</v>
+      </c>
+      <c r="D557">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E557">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F557">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="558" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C558" t="s">
+        <v>22</v>
+      </c>
+      <c r="D558">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E558">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F558">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="559" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C559" t="s">
+        <v>23</v>
+      </c>
+      <c r="D559">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E559">
+        <v>0.624</v>
+      </c>
+      <c r="F559">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="560" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C560" t="s">
+        <v>24</v>
+      </c>
+      <c r="D560">
+        <v>0.83</v>
+      </c>
+      <c r="E560">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F560">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C561" t="s">
+        <v>25</v>
+      </c>
+      <c r="D561">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E561">
+        <v>0.41</v>
+      </c>
+      <c r="F561">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C562" t="s">
+        <v>26</v>
+      </c>
+      <c r="D562">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E562">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F562">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>1</v>
+      </c>
+      <c r="C565">
+        <v>1720.051025390625</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>2</v>
+      </c>
+      <c r="C566">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>3</v>
+      </c>
+      <c r="C567">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>5</v>
+      </c>
+      <c r="C569" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>8</v>
+      </c>
+      <c r="C571" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>11</v>
+      </c>
+      <c r="C573" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>13</v>
+      </c>
+      <c r="C574" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>15</v>
+      </c>
+      <c r="C575" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>17</v>
+      </c>
+      <c r="C576">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="577" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>18</v>
+      </c>
+      <c r="C577">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="578" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>19</v>
+      </c>
+      <c r="C578">
+        <v>0.7985491156578064</v>
+      </c>
+    </row>
+    <row r="579" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="580" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D580" t="s">
+        <v>21</v>
+      </c>
+      <c r="E580" t="s">
+        <v>22</v>
+      </c>
+      <c r="F580" t="s">
+        <v>23</v>
+      </c>
+      <c r="G580" t="s">
+        <v>24</v>
+      </c>
+      <c r="H580" t="s">
+        <v>25</v>
+      </c>
+      <c r="I580" t="s">
+        <v>26</v>
+      </c>
+      <c r="J580" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="581" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C581" t="s">
+        <v>21</v>
+      </c>
+      <c r="D581">
+        <v>4218</v>
+      </c>
+      <c r="E581">
+        <v>14</v>
+      </c>
+      <c r="F581">
+        <v>5</v>
+      </c>
+      <c r="G581">
+        <v>37</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C582" t="s">
+        <v>22</v>
+      </c>
+      <c r="D582">
+        <v>320</v>
+      </c>
+      <c r="E582">
+        <v>3</v>
+      </c>
+      <c r="F582">
+        <v>0</v>
+      </c>
+      <c r="G582">
+        <v>2</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+      <c r="I582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C583" t="s">
+        <v>23</v>
+      </c>
+      <c r="D583">
+        <v>167</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+      <c r="F583">
+        <v>8</v>
+      </c>
+      <c r="G583">
+        <v>11</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+      <c r="I583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C584" t="s">
+        <v>24</v>
+      </c>
+      <c r="D584">
+        <v>299</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
+      </c>
+      <c r="F584">
+        <v>0</v>
+      </c>
+      <c r="G584">
+        <v>63</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C585" t="s">
+        <v>25</v>
+      </c>
+      <c r="D585">
+        <v>94</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>0</v>
+      </c>
+      <c r="G585">
+        <v>6</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+      <c r="I585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>26</v>
+      </c>
+      <c r="D586">
+        <v>113</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <v>15</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+      <c r="I586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C587" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="588" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="589" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D589" t="s">
+        <v>30</v>
+      </c>
+      <c r="E589" t="s">
+        <v>31</v>
+      </c>
+      <c r="F589" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="590" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C590" t="s">
+        <v>21</v>
+      </c>
+      <c r="D590">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E590">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F590">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="591" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C591" t="s">
+        <v>22</v>
+      </c>
+      <c r="D591">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E591">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F591">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C592" t="s">
+        <v>23</v>
+      </c>
+      <c r="D592">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E592">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F592">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C593" t="s">
+        <v>24</v>
+      </c>
+      <c r="D593">
+        <v>0.47</v>
+      </c>
+      <c r="E593">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F593">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C594" t="s">
+        <v>25</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C595" t="s">
+        <v>26</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F595">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>2655.2548828125</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>2</v>
+      </c>
+      <c r="C599">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>3</v>
+      </c>
+      <c r="C600">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+      <c r="C603">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>8</v>
+      </c>
+      <c r="C604" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C605">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>13</v>
+      </c>
+      <c r="C607" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>15</v>
+      </c>
+      <c r="C608" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="609" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="610" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>18</v>
+      </c>
+      <c r="C610">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="611" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611">
+        <v>0.87369793653488159</v>
+      </c>
+    </row>
+    <row r="612" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="613" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D613" t="s">
+        <v>21</v>
+      </c>
+      <c r="E613" t="s">
+        <v>22</v>
+      </c>
+      <c r="F613" t="s">
+        <v>23</v>
+      </c>
+      <c r="G613" t="s">
+        <v>24</v>
+      </c>
+      <c r="H613" t="s">
+        <v>25</v>
+      </c>
+      <c r="I613" t="s">
+        <v>26</v>
+      </c>
+      <c r="J613" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="614" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C614" t="s">
+        <v>21</v>
+      </c>
+      <c r="D614">
+        <v>4178</v>
+      </c>
+      <c r="E614">
+        <v>36</v>
+      </c>
+      <c r="F614">
+        <v>19</v>
+      </c>
+      <c r="G614">
+        <v>24</v>
+      </c>
+      <c r="H614">
+        <v>12</v>
+      </c>
+      <c r="I614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C615" t="s">
+        <v>22</v>
+      </c>
+      <c r="D615">
+        <v>222</v>
+      </c>
+      <c r="E615">
+        <v>95</v>
+      </c>
+      <c r="F615">
+        <v>2</v>
+      </c>
+      <c r="G615">
+        <v>3</v>
+      </c>
+      <c r="H615">
+        <v>2</v>
+      </c>
+      <c r="I615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C616" t="s">
+        <v>23</v>
+      </c>
+      <c r="D616">
+        <v>66</v>
+      </c>
+      <c r="E616">
+        <v>6</v>
+      </c>
+      <c r="F616">
+        <v>113</v>
+      </c>
+      <c r="G616">
+        <v>1</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+      <c r="I616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C617" t="s">
+        <v>24</v>
+      </c>
+      <c r="D617">
+        <v>134</v>
+      </c>
+      <c r="E617">
+        <v>7</v>
+      </c>
+      <c r="F617">
+        <v>7</v>
+      </c>
+      <c r="G617">
+        <v>211</v>
+      </c>
+      <c r="H617">
+        <v>3</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C618" t="s">
+        <v>25</v>
+      </c>
+      <c r="D618">
+        <v>46</v>
+      </c>
+      <c r="E618">
+        <v>2</v>
+      </c>
+      <c r="F618">
+        <v>7</v>
+      </c>
+      <c r="G618">
+        <v>4</v>
+      </c>
+      <c r="H618">
+        <v>40</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C619" t="s">
+        <v>26</v>
+      </c>
+      <c r="D619">
+        <v>60</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+      <c r="F619">
+        <v>5</v>
+      </c>
+      <c r="G619">
+        <v>4</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="620" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C620" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="621" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="622" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D622" t="s">
+        <v>30</v>
+      </c>
+      <c r="E622" t="s">
+        <v>31</v>
+      </c>
+      <c r="F622" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="623" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C623" t="s">
+        <v>21</v>
+      </c>
+      <c r="D623">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E623">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F623">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C624" t="s">
+        <v>22</v>
+      </c>
+      <c r="D624">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E624">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F624">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C625" t="s">
+        <v>23</v>
+      </c>
+      <c r="D625">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E625">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F625">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C626" t="s">
+        <v>24</v>
+      </c>
+      <c r="D626">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E626">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F626">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C627" t="s">
+        <v>25</v>
+      </c>
+      <c r="D627">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E627">
+        <v>0.4</v>
+      </c>
+      <c r="F627">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C628" t="s">
+        <v>26</v>
+      </c>
+      <c r="D628">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E628">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F628">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>1</v>
+      </c>
+      <c r="C631">
+        <v>1654.22802734375</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>2</v>
+      </c>
+      <c r="C632">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>3</v>
+      </c>
+      <c r="C633">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>4</v>
+      </c>
+      <c r="C634">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>5</v>
+      </c>
+      <c r="C635" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>7</v>
+      </c>
+      <c r="C636">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>8</v>
+      </c>
+      <c r="C637" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B638" t="s">
+        <v>10</v>
+      </c>
+      <c r="C638">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B640" t="s">
+        <v>13</v>
+      </c>
+      <c r="C640" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="641" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>15</v>
+      </c>
+      <c r="C641" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="642" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>17</v>
+      </c>
+      <c r="C642">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="643" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>18</v>
+      </c>
+      <c r="C643">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="644" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>19</v>
+      </c>
+      <c r="C644">
+        <v>0.87518602609634399</v>
+      </c>
+    </row>
+    <row r="645" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D646" t="s">
+        <v>21</v>
+      </c>
+      <c r="E646" t="s">
+        <v>22</v>
+      </c>
+      <c r="F646" t="s">
+        <v>23</v>
+      </c>
+      <c r="G646" t="s">
+        <v>24</v>
+      </c>
+      <c r="H646" t="s">
+        <v>25</v>
+      </c>
+      <c r="I646" t="s">
+        <v>26</v>
+      </c>
+      <c r="J646" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="647" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C647" t="s">
+        <v>21</v>
+      </c>
+      <c r="D647">
+        <v>4141</v>
+      </c>
+      <c r="E647">
+        <v>57</v>
+      </c>
+      <c r="F647">
+        <v>24</v>
+      </c>
+      <c r="G647">
+        <v>29</v>
+      </c>
+      <c r="H647">
+        <v>19</v>
+      </c>
+      <c r="I647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C648" t="s">
+        <v>22</v>
+      </c>
+      <c r="D648">
+        <v>205</v>
+      </c>
+      <c r="E648">
+        <v>107</v>
+      </c>
+      <c r="F648">
+        <v>4</v>
+      </c>
+      <c r="G648">
+        <v>9</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+      <c r="I648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C649" t="s">
+        <v>23</v>
+      </c>
+      <c r="D649">
+        <v>55</v>
+      </c>
+      <c r="E649">
+        <v>4</v>
+      </c>
+      <c r="F649">
+        <v>119</v>
+      </c>
+      <c r="G649">
+        <v>5</v>
+      </c>
+      <c r="H649">
+        <v>2</v>
+      </c>
+      <c r="I649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C650" t="s">
+        <v>24</v>
+      </c>
+      <c r="D650">
+        <v>117</v>
+      </c>
+      <c r="E650">
+        <v>12</v>
+      </c>
+      <c r="F650">
+        <v>7</v>
+      </c>
+      <c r="G650">
+        <v>219</v>
+      </c>
+      <c r="H650">
+        <v>5</v>
+      </c>
+      <c r="I650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C651" t="s">
+        <v>25</v>
+      </c>
+      <c r="D651">
+        <v>37</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <v>4</v>
+      </c>
+      <c r="G651">
+        <v>4</v>
+      </c>
+      <c r="H651">
+        <v>52</v>
+      </c>
+      <c r="I651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C652" t="s">
+        <v>26</v>
+      </c>
+      <c r="D652">
+        <v>43</v>
+      </c>
+      <c r="E652">
+        <v>3</v>
+      </c>
+      <c r="F652">
+        <v>6</v>
+      </c>
+      <c r="G652">
+        <v>6</v>
+      </c>
+      <c r="H652">
+        <v>4</v>
+      </c>
+      <c r="I652">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="653" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C653" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="654" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="655" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D655" t="s">
+        <v>30</v>
+      </c>
+      <c r="E655" t="s">
+        <v>31</v>
+      </c>
+      <c r="F655" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="656" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C656" t="s">
+        <v>21</v>
+      </c>
+      <c r="D656">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E656">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F656">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C657" t="s">
+        <v>22</v>
+      </c>
+      <c r="D657">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E657">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F657">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C658" t="s">
+        <v>23</v>
+      </c>
+      <c r="D658">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E658">
+        <v>0.64</v>
+      </c>
+      <c r="F658">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C659" t="s">
+        <v>24</v>
+      </c>
+      <c r="D659">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E659">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F659">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C660" t="s">
+        <v>25</v>
+      </c>
+      <c r="D660">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E660">
+        <v>0.52</v>
+      </c>
+      <c r="F660">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C661" t="s">
+        <v>26</v>
+      </c>
+      <c r="D661">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E661">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F661">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B664" t="s">
+        <v>1</v>
+      </c>
+      <c r="C664">
+        <v>1449.1810302734375</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>2</v>
+      </c>
+      <c r="C665">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>3</v>
+      </c>
+      <c r="C666">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>4</v>
+      </c>
+      <c r="C667">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>5</v>
+      </c>
+      <c r="C668" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B670" t="s">
+        <v>8</v>
+      </c>
+      <c r="C670" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>10</v>
+      </c>
+      <c r="C671">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="673" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B673" t="s">
+        <v>13</v>
+      </c>
+      <c r="C673" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="674" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B674" t="s">
+        <v>15</v>
+      </c>
+      <c r="C674" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="675" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>17</v>
+      </c>
+      <c r="C675">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="676" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>18</v>
+      </c>
+      <c r="C676">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="677" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B677" t="s">
+        <v>19</v>
+      </c>
+      <c r="C677">
+        <v>0.81603419780731201</v>
+      </c>
+    </row>
+    <row r="678" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B678" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D679" t="s">
+        <v>21</v>
+      </c>
+      <c r="E679" t="s">
+        <v>22</v>
+      </c>
+      <c r="F679" t="s">
+        <v>23</v>
+      </c>
+      <c r="G679" t="s">
+        <v>24</v>
+      </c>
+      <c r="H679" t="s">
+        <v>25</v>
+      </c>
+      <c r="I679" t="s">
+        <v>26</v>
+      </c>
+      <c r="J679" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="680" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C680" t="s">
+        <v>21</v>
+      </c>
+      <c r="D680">
+        <v>4218</v>
+      </c>
+      <c r="E680">
+        <v>17</v>
+      </c>
+      <c r="F680">
+        <v>10</v>
+      </c>
+      <c r="G680">
+        <v>12</v>
+      </c>
+      <c r="H680">
+        <v>3</v>
+      </c>
+      <c r="I680">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="681" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C681" t="s">
+        <v>22</v>
+      </c>
+      <c r="D681">
+        <v>319</v>
+      </c>
+      <c r="E681">
+        <v>3</v>
+      </c>
+      <c r="F681">
+        <v>0</v>
+      </c>
+      <c r="G681">
+        <v>3</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C682" t="s">
+        <v>23</v>
+      </c>
+      <c r="D682">
+        <v>155</v>
+      </c>
+      <c r="E682">
+        <v>2</v>
+      </c>
+      <c r="F682">
+        <v>24</v>
+      </c>
+      <c r="G682">
+        <v>5</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C683" t="s">
+        <v>24</v>
+      </c>
+      <c r="D683">
+        <v>246</v>
+      </c>
+      <c r="E683">
+        <v>2</v>
+      </c>
+      <c r="F683">
+        <v>5</v>
+      </c>
+      <c r="G683">
+        <v>105</v>
+      </c>
+      <c r="H683">
+        <v>1</v>
+      </c>
+      <c r="I683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C684" t="s">
+        <v>25</v>
+      </c>
+      <c r="D684">
+        <v>82</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <v>4</v>
+      </c>
+      <c r="H684">
+        <v>12</v>
+      </c>
+      <c r="I684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C685" t="s">
+        <v>26</v>
+      </c>
+      <c r="D685">
+        <v>92</v>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+      <c r="F685">
+        <v>6</v>
+      </c>
+      <c r="G685">
+        <v>5</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+      <c r="I685">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="686" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C686" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="687" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="688" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D688" t="s">
+        <v>30</v>
+      </c>
+      <c r="E688" t="s">
+        <v>31</v>
+      </c>
+      <c r="F688" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C689" t="s">
+        <v>21</v>
+      </c>
+      <c r="D689">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E689">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F689">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C690" t="s">
+        <v>22</v>
+      </c>
+      <c r="D690">
+        <v>0.12</v>
+      </c>
+      <c r="E690">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F690">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C691" t="s">
+        <v>23</v>
+      </c>
+      <c r="D691">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E691">
+        <v>0.129</v>
+      </c>
+      <c r="F691">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C692" t="s">
+        <v>24</v>
+      </c>
+      <c r="D692">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E692">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F692">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C693" t="s">
+        <v>25</v>
+      </c>
+      <c r="D693">
+        <v>0.75</v>
+      </c>
+      <c r="E693">
+        <v>0.12</v>
+      </c>
+      <c r="F693">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C694" t="s">
+        <v>26</v>
+      </c>
+      <c r="D694">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E694">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F694">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B697" t="s">
+        <v>1</v>
+      </c>
+      <c r="C697">
+        <v>2880.366943359375</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B698" t="s">
+        <v>2</v>
+      </c>
+      <c r="C698">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B699" t="s">
+        <v>3</v>
+      </c>
+      <c r="C699">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B700" t="s">
+        <v>4</v>
+      </c>
+      <c r="C700">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B701" t="s">
+        <v>5</v>
+      </c>
+      <c r="C701" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B702" t="s">
+        <v>7</v>
+      </c>
+      <c r="C702">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B703" t="s">
+        <v>8</v>
+      </c>
+      <c r="C703" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="706" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B706" t="s">
+        <v>13</v>
+      </c>
+      <c r="C706" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="707" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B707" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="708" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B708" t="s">
+        <v>17</v>
+      </c>
+      <c r="C708">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="709" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B709" t="s">
+        <v>18</v>
+      </c>
+      <c r="C709">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="710" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B710" t="s">
+        <v>19</v>
+      </c>
+      <c r="C710">
+        <v>0.84412205219268799</v>
+      </c>
+    </row>
+    <row r="711" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B711" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="712" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D712" t="s">
+        <v>21</v>
+      </c>
+      <c r="E712" t="s">
+        <v>22</v>
+      </c>
+      <c r="F712" t="s">
+        <v>23</v>
+      </c>
+      <c r="G712" t="s">
+        <v>24</v>
+      </c>
+      <c r="H712" t="s">
+        <v>25</v>
+      </c>
+      <c r="I712" t="s">
+        <v>26</v>
+      </c>
+      <c r="J712" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="713" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C713" t="s">
+        <v>21</v>
+      </c>
+      <c r="D713">
+        <v>4004</v>
+      </c>
+      <c r="E713">
+        <v>209</v>
+      </c>
+      <c r="F713">
+        <v>18</v>
+      </c>
+      <c r="G713">
+        <v>26</v>
+      </c>
+      <c r="H713">
+        <v>13</v>
+      </c>
+      <c r="I713">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C714" t="s">
+        <v>22</v>
+      </c>
+      <c r="D714">
+        <v>193</v>
+      </c>
+      <c r="E714">
+        <v>123</v>
+      </c>
+      <c r="F714">
+        <v>1</v>
+      </c>
+      <c r="G714">
+        <v>5</v>
+      </c>
+      <c r="H714">
+        <v>2</v>
+      </c>
+      <c r="I714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C715" t="s">
+        <v>23</v>
+      </c>
+      <c r="D715">
+        <v>68</v>
+      </c>
+      <c r="E715">
+        <v>6</v>
+      </c>
+      <c r="F715">
+        <v>108</v>
+      </c>
+      <c r="G715">
+        <v>4</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+      <c r="I715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C716" t="s">
+        <v>24</v>
+      </c>
+      <c r="D716">
+        <v>130</v>
+      </c>
+      <c r="E716">
+        <v>8</v>
+      </c>
+      <c r="F716">
+        <v>5</v>
+      </c>
+      <c r="G716">
+        <v>215</v>
+      </c>
+      <c r="H716">
+        <v>4</v>
+      </c>
+      <c r="I716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C717" t="s">
+        <v>25</v>
+      </c>
+      <c r="D717">
+        <v>48</v>
+      </c>
+      <c r="E717">
+        <v>3</v>
+      </c>
+      <c r="F717">
+        <v>5</v>
+      </c>
+      <c r="G717">
+        <v>5</v>
+      </c>
+      <c r="H717">
+        <v>38</v>
+      </c>
+      <c r="I717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C718" t="s">
+        <v>26</v>
+      </c>
+      <c r="D718">
+        <v>68</v>
+      </c>
+      <c r="E718">
+        <v>0</v>
+      </c>
+      <c r="F718">
+        <v>6</v>
+      </c>
+      <c r="G718">
+        <v>5</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+      <c r="I718">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="719" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C719" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="720" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B720" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D721" t="s">
+        <v>30</v>
+      </c>
+      <c r="E721" t="s">
+        <v>31</v>
+      </c>
+      <c r="F721" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C722" t="s">
+        <v>21</v>
+      </c>
+      <c r="D722">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E722">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F722">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C723" t="s">
+        <v>22</v>
+      </c>
+      <c r="D723">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E723">
+        <v>0.378</v>
+      </c>
+      <c r="F723">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C724" t="s">
+        <v>23</v>
+      </c>
+      <c r="D724">
+        <v>0.755</v>
+      </c>
+      <c r="E724">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F724">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C725" t="s">
+        <v>24</v>
+      </c>
+      <c r="D725">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="E725">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F725">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C726" t="s">
+        <v>25</v>
+      </c>
+      <c r="D726">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E726">
+        <v>0.38</v>
+      </c>
+      <c r="F726">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C727" t="s">
+        <v>26</v>
+      </c>
+      <c r="D727">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E727">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F727">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B730" t="s">
+        <v>1</v>
+      </c>
+      <c r="C730">
+        <v>24.563999176025391</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B731" t="s">
+        <v>2</v>
+      </c>
+      <c r="C731">
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B732" t="s">
+        <v>3</v>
+      </c>
+      <c r="C732">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B733" t="s">
+        <v>4</v>
+      </c>
+      <c r="C733">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B734" t="s">
+        <v>5</v>
+      </c>
+      <c r="C734" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B736" t="s">
+        <v>8</v>
+      </c>
+      <c r="C736" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="737" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B737" t="s">
+        <v>10</v>
+      </c>
+      <c r="C737">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="738" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B738" t="s">
+        <v>11</v>
+      </c>
+      <c r="C738" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="739" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B739" t="s">
+        <v>13</v>
+      </c>
+      <c r="C739" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="740" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B740" t="s">
+        <v>15</v>
+      </c>
+      <c r="C740" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="741" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>17</v>
+      </c>
+      <c r="C741">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="742" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B742" t="s">
+        <v>18</v>
+      </c>
+      <c r="C742">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="743" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B743" t="s">
+        <v>19</v>
+      </c>
+      <c r="C743">
+        <v>0.7983630895614624</v>
+      </c>
+    </row>
+    <row r="744" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B744" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="745" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D745" t="s">
+        <v>21</v>
+      </c>
+      <c r="E745" t="s">
+        <v>22</v>
+      </c>
+      <c r="F745" t="s">
+        <v>23</v>
+      </c>
+      <c r="G745" t="s">
+        <v>24</v>
+      </c>
+      <c r="H745" t="s">
+        <v>25</v>
+      </c>
+      <c r="I745" t="s">
+        <v>26</v>
+      </c>
+      <c r="J745" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="746" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C746" t="s">
+        <v>21</v>
+      </c>
+      <c r="D746">
+        <v>4180</v>
+      </c>
+      <c r="E746">
+        <v>12</v>
+      </c>
+      <c r="F746">
+        <v>19</v>
+      </c>
+      <c r="G746">
+        <v>52</v>
+      </c>
+      <c r="H746">
+        <v>7</v>
+      </c>
+      <c r="I746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C747" t="s">
+        <v>22</v>
+      </c>
+      <c r="D747">
+        <v>288</v>
+      </c>
+      <c r="E747">
+        <v>7</v>
+      </c>
+      <c r="F747">
+        <v>8</v>
+      </c>
+      <c r="G747">
+        <v>21</v>
+      </c>
+      <c r="H747">
+        <v>1</v>
+      </c>
+      <c r="I747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C748" t="s">
+        <v>23</v>
+      </c>
+      <c r="D748">
+        <v>127</v>
+      </c>
+      <c r="E748">
+        <v>7</v>
+      </c>
+      <c r="F748">
+        <v>30</v>
+      </c>
+      <c r="G748">
+        <v>15</v>
+      </c>
+      <c r="H748">
+        <v>7</v>
+      </c>
+      <c r="I748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C749" t="s">
+        <v>24</v>
+      </c>
+      <c r="D749">
+        <v>266</v>
+      </c>
+      <c r="E749">
+        <v>5</v>
+      </c>
+      <c r="F749">
+        <v>13</v>
+      </c>
+      <c r="G749">
+        <v>73</v>
+      </c>
+      <c r="H749">
+        <v>4</v>
+      </c>
+      <c r="I749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C750" t="s">
+        <v>25</v>
+      </c>
+      <c r="D750">
+        <v>85</v>
+      </c>
+      <c r="E750">
+        <v>0</v>
+      </c>
+      <c r="F750">
+        <v>7</v>
+      </c>
+      <c r="G750">
+        <v>6</v>
+      </c>
+      <c r="H750">
+        <v>2</v>
+      </c>
+      <c r="I750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C751" t="s">
+        <v>26</v>
+      </c>
+      <c r="D751">
+        <v>118</v>
+      </c>
+      <c r="E751">
+        <v>2</v>
+      </c>
+      <c r="F751">
+        <v>3</v>
+      </c>
+      <c r="G751">
+        <v>6</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="I751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C752" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B753" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D754" t="s">
+        <v>30</v>
+      </c>
+      <c r="E754" t="s">
+        <v>31</v>
+      </c>
+      <c r="F754" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="755" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C755" t="s">
+        <v>21</v>
+      </c>
+      <c r="D755">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E755">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F755">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="756" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C756" t="s">
+        <v>22</v>
+      </c>
+      <c r="D756">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E756">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F756">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C757" t="s">
+        <v>23</v>
+      </c>
+      <c r="D757">
+        <v>0.375</v>
+      </c>
+      <c r="E757">
+        <v>0.161</v>
+      </c>
+      <c r="F757">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="758" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C758" t="s">
+        <v>24</v>
+      </c>
+      <c r="D758">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E758">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F758">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="759" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C759" t="s">
+        <v>25</v>
+      </c>
+      <c r="D759">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E759">
+        <v>0.02</v>
+      </c>
+      <c r="F759">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="760" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C760" t="s">
+        <v>26</v>
+      </c>
+      <c r="D760">
+        <v>0</v>
+      </c>
+      <c r="E760">
+        <v>0</v>
+      </c>
+      <c r="F760">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5930B66E-AB93-485E-BBD7-53694D0EAC4D}">
   <dimension ref="A2:J991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358:F364"/>
+    <sheetView topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="I362" sqref="I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
